--- a/Fase 2/Evidencias Proyecto/Matriz de Pruebas.xlsx
+++ b/Fase 2/Evidencias Proyecto/Matriz de Pruebas.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Hoja 1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Hoja 1'!$A$1:$I$64</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Hoja 1'!$A$1:$I$69</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="326">
   <si>
     <t>Tipo de Prueba</t>
   </si>
@@ -618,6 +618,9 @@
     <t>Verificar que el registro funcione correctamente</t>
   </si>
   <si>
+    <t>Datos del usuario</t>
+  </si>
+  <si>
     <t>Usuario registrado correctamente</t>
   </si>
   <si>
@@ -630,6 +633,9 @@
     <t>Verificar que el "Crear Ticket" cree un ticket correctamente.</t>
   </si>
   <si>
+    <t>Todos los datos de ticket</t>
+  </si>
+  <si>
     <t>Creacion de ticket exitosa</t>
   </si>
   <si>
@@ -645,6 +651,9 @@
     <t>Verfiica que el usuario peuda iniciar sesion</t>
   </si>
   <si>
+    <t>Usuario y contraseña</t>
+  </si>
+  <si>
     <t>Usuario ingresa a la pagina con sus credenciales</t>
   </si>
   <si>
@@ -793,6 +802,24 @@
   </si>
   <si>
     <t>En Progreso</t>
+  </si>
+  <si>
+    <t>PF14</t>
+  </si>
+  <si>
+    <t>Feedback</t>
+  </si>
+  <si>
+    <t>Verifica que el feedback del usuario se guarda correctamente en el sistema.</t>
+  </si>
+  <si>
+    <t>Comentarios y escala de medición.</t>
+  </si>
+  <si>
+    <t>Datos de feedback guardados correctamente</t>
+  </si>
+  <si>
+    <t>Feedback guardado en la base de datos y administrador TI lo puede ver</t>
   </si>
   <si>
     <t>Pruebas Unitarias</t>
@@ -997,7 +1024,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="31">
     <border/>
     <border>
       <left style="thin">
@@ -1298,10 +1325,94 @@
         <color rgb="FF284E3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFC9DAF8"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFC9DAF8"/>
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF284E3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF284E3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF6F8F9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF6F8F9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF6F8F9"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF6F8F9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF6F8F9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF6F8F9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF6F8F9"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF6F8F9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF284E3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF6F8F9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF6F8F9"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF284E3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF6F8F9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF6F8F9"/>
       </top>
       <bottom style="thin">
         <color rgb="FF284E3F"/>
@@ -1309,13 +1420,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFC9DAF8"/>
+        <color rgb="FFF6F8F9"/>
       </left>
       <right style="thin">
-        <color rgb="FFC9DAF8"/>
+        <color rgb="FFF6F8F9"/>
       </right>
       <top style="thin">
-        <color rgb="FFC9DAF8"/>
+        <color rgb="FFF6F8F9"/>
       </top>
       <bottom style="thin">
         <color rgb="FF284E3F"/>
@@ -1323,13 +1434,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFC9DAF8"/>
+        <color rgb="FFF6F8F9"/>
       </left>
       <right style="thin">
         <color rgb="FF284E3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFC9DAF8"/>
+        <color rgb="FFF6F8F9"/>
       </top>
       <bottom style="thin">
         <color rgb="FF284E3F"/>
@@ -1339,7 +1450,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="76">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1385,6 +1496,9 @@
     <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -1448,6 +1562,9 @@
     <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="16" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -1524,6 +1641,42 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="24" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="25" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="26" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="26" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="26" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="26" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="27" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="28" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="29" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="29" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="29" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="29" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="30" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1644,8 +1797,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:I64" displayName="Matriz_de_Pruebas" name="Matriz_de_Pruebas" id="1">
-  <autoFilter ref="$A$1:$I$64"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:I69" displayName="Matriz_de_Pruebas" name="Matriz_de_Pruebas" id="1">
+  <autoFilter ref="$A$1:$I$69"/>
   <tableColumns count="9">
     <tableColumn name="Tipo de Prueba" id="1"/>
     <tableColumn name="ID de Prueba" id="2"/>
@@ -1873,8 +2026,7 @@
     <col customWidth="1" min="3" max="3" width="25.25"/>
     <col customWidth="1" min="4" max="4" width="47.88"/>
     <col customWidth="1" min="5" max="5" width="22.38"/>
-    <col customWidth="1" min="6" max="6" width="36.63"/>
-    <col customWidth="1" min="7" max="7" width="20.25"/>
+    <col customWidth="1" min="6" max="7" width="20.25"/>
     <col customWidth="1" min="8" max="8" width="19.0"/>
     <col customWidth="1" min="9" max="9" width="58.0"/>
   </cols>
@@ -2005,7 +2157,7 @@
       <c r="E5" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="15" t="s">
         <v>31</v>
       </c>
       <c r="G5" s="7" t="s">
@@ -2032,7 +2184,7 @@
       <c r="E6" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="7" t="s">
         <v>36</v>
       </c>
       <c r="G6" s="7" t="s">
@@ -2059,7 +2211,7 @@
       <c r="E7" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
@@ -2086,7 +2238,7 @@
       <c r="E8" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="7" t="s">
         <v>47</v>
       </c>
       <c r="G8" s="7" t="s">
@@ -2113,7 +2265,7 @@
       <c r="E9" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="7" t="s">
         <v>54</v>
       </c>
       <c r="G9" s="7" t="s">
@@ -2125,1536 +2277,1607 @@
       <c r="I9" s="14"/>
     </row>
     <row r="10">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="H10" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="19" t="s">
+      <c r="H10" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="20" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="19"/>
+      <c r="H11" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="20"/>
     </row>
     <row r="12">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="H12" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="19"/>
+      <c r="H12" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="20"/>
     </row>
     <row r="13">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="H13" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="19"/>
+      <c r="H13" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="20"/>
     </row>
     <row r="14">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="H14" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="19"/>
+      <c r="H14" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="20"/>
     </row>
     <row r="15">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="H15" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="19"/>
+      <c r="H15" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="20"/>
     </row>
     <row r="16">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="H16" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="19"/>
+      <c r="H16" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="20"/>
     </row>
     <row r="17">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="H17" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="19"/>
+      <c r="H17" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="20"/>
     </row>
     <row r="18">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="H18" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="19"/>
+      <c r="H18" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="20"/>
     </row>
     <row r="19">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="H19" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="19"/>
+      <c r="H19" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="20"/>
     </row>
     <row r="20">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="F20" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="G20" s="22" t="s">
+      <c r="G20" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="H20" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="24" t="s">
+      <c r="H20" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="25" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="E21" s="27" t="s">
+      <c r="E21" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="F21" s="27" t="s">
+      <c r="F21" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="G21" s="27" t="s">
+      <c r="G21" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="H21" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="29"/>
+      <c r="H21" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="30"/>
     </row>
     <row r="22">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="D22" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="F22" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="G22" s="22" t="s">
+      <c r="G22" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="H22" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="29"/>
+      <c r="H22" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="30"/>
     </row>
     <row r="23">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="D23" s="27" t="s">
+      <c r="D23" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="F23" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="G23" s="22" t="s">
+      <c r="G23" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="H23" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" s="29"/>
+      <c r="H23" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="30"/>
     </row>
     <row r="24">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="F24" s="22" t="s">
+      <c r="F24" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="G24" s="22" t="s">
+      <c r="G24" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="H24" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24" s="29"/>
+      <c r="H24" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="30"/>
     </row>
     <row r="25">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="F25" s="22" t="s">
+      <c r="F25" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="G25" s="22" t="s">
+      <c r="G25" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="H25" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="I25" s="29"/>
+      <c r="H25" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="30"/>
     </row>
     <row r="26">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="F26" s="22" t="s">
+      <c r="F26" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="G26" s="22" t="s">
+      <c r="G26" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="H26" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="I26" s="29"/>
+      <c r="H26" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="30"/>
     </row>
     <row r="27">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="D27" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="F27" s="22" t="s">
+      <c r="F27" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="G27" s="22" t="s">
+      <c r="G27" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="H27" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="I27" s="29"/>
+      <c r="H27" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="30"/>
     </row>
     <row r="28">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="D28" s="27" t="s">
+      <c r="D28" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="F28" s="22" t="s">
+      <c r="F28" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="G28" s="22" t="s">
+      <c r="G28" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="H28" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="I28" s="29"/>
+      <c r="H28" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="30"/>
     </row>
     <row r="29">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="D29" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="E29" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="F29" s="27" t="s">
+      <c r="F29" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="G29" s="27" t="s">
+      <c r="G29" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="H29" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" s="29"/>
+      <c r="H29" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="30"/>
     </row>
     <row r="30">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="D30" s="27" t="s">
+      <c r="D30" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="E30" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="F30" s="27" t="s">
+      <c r="F30" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="G30" s="27" t="s">
+      <c r="G30" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="H30" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="I30" s="29"/>
+      <c r="H30" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="30"/>
     </row>
     <row r="31">
-      <c r="A31" s="30" t="s">
+      <c r="A31" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="D31" s="32" t="s">
+      <c r="D31" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="E31" s="33" t="s">
+      <c r="E31" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="F31" s="32" t="s">
+      <c r="F31" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="G31" s="32" t="s">
+      <c r="G31" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="H31" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="I31" s="35" t="s">
+      <c r="H31" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="36" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="30" t="s">
+      <c r="A32" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="C32" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="D32" s="32" t="s">
+      <c r="D32" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="E32" s="33" t="s">
+      <c r="E32" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="F32" s="32" t="s">
+      <c r="F32" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="G32" s="32" t="s">
+      <c r="G32" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="H32" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="I32" s="35"/>
+      <c r="H32" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="36"/>
     </row>
     <row r="33">
-      <c r="A33" s="30" t="s">
+      <c r="A33" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="C33" s="32" t="s">
+      <c r="C33" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="D33" s="32" t="s">
+      <c r="D33" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="E33" s="33" t="s">
+      <c r="E33" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="F33" s="32" t="s">
+      <c r="F33" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="G33" s="32" t="s">
+      <c r="G33" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="H33" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="I33" s="35"/>
+      <c r="H33" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" s="36"/>
     </row>
     <row r="34">
-      <c r="A34" s="30" t="s">
+      <c r="A34" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="C34" s="32" t="s">
+      <c r="C34" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="D34" s="32" t="s">
+      <c r="D34" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="E34" s="33" t="s">
+      <c r="E34" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="F34" s="32" t="s">
+      <c r="F34" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="G34" s="32" t="s">
+      <c r="G34" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="H34" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="I34" s="35"/>
+      <c r="H34" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" s="36"/>
     </row>
     <row r="35">
-      <c r="A35" s="30" t="s">
+      <c r="A35" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="B35" s="31" t="s">
+      <c r="B35" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="C35" s="32" t="s">
+      <c r="C35" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="D35" s="32" t="s">
+      <c r="D35" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="E35" s="33" t="s">
+      <c r="E35" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="F35" s="32" t="s">
+      <c r="F35" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="G35" s="32" t="s">
+      <c r="G35" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="H35" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="I35" s="35"/>
+      <c r="H35" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" s="36"/>
     </row>
     <row r="36">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="B36" s="31" t="s">
+      <c r="B36" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="C36" s="32" t="s">
+      <c r="C36" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="D36" s="32" t="s">
+      <c r="D36" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="E36" s="33" t="s">
+      <c r="E36" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="F36" s="32" t="s">
+      <c r="F36" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="G36" s="32" t="s">
+      <c r="G36" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="H36" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="I36" s="35"/>
+      <c r="H36" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" s="36"/>
     </row>
     <row r="37">
-      <c r="A37" s="30" t="s">
+      <c r="A37" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="C37" s="32" t="s">
+      <c r="C37" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="D37" s="32" t="s">
+      <c r="D37" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="E37" s="33" t="s">
+      <c r="E37" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="F37" s="32" t="s">
+      <c r="F37" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="G37" s="32" t="s">
+      <c r="G37" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="H37" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="I37" s="35"/>
+      <c r="H37" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" s="36"/>
     </row>
     <row r="38">
-      <c r="A38" s="30" t="s">
+      <c r="A38" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="C38" s="32" t="s">
+      <c r="C38" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="D38" s="32" t="s">
+      <c r="D38" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="E38" s="33" t="s">
+      <c r="E38" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="F38" s="32" t="s">
+      <c r="F38" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="G38" s="32" t="s">
+      <c r="G38" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="H38" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="I38" s="35"/>
+      <c r="H38" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" s="36"/>
     </row>
     <row r="39">
-      <c r="A39" s="30" t="s">
+      <c r="A39" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="B39" s="31" t="s">
+      <c r="B39" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="C39" s="32" t="s">
+      <c r="C39" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="D39" s="32" t="s">
+      <c r="D39" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="E39" s="33" t="s">
+      <c r="E39" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="F39" s="32" t="s">
+      <c r="F39" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="G39" s="32" t="s">
+      <c r="G39" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="H39" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="I39" s="35"/>
+      <c r="H39" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39" s="36"/>
     </row>
     <row r="40">
-      <c r="A40" s="30" t="s">
+      <c r="A40" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="B40" s="31" t="s">
+      <c r="B40" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="C40" s="32" t="s">
+      <c r="C40" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="D40" s="32" t="s">
+      <c r="D40" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="E40" s="33" t="s">
+      <c r="E40" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="F40" s="32" t="s">
+      <c r="F40" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="G40" s="32" t="s">
+      <c r="G40" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="H40" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="I40" s="35"/>
+      <c r="H40" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="I40" s="36"/>
     </row>
     <row r="41">
-      <c r="A41" s="30" t="s">
+      <c r="A41" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="B41" s="31" t="s">
+      <c r="B41" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="C41" s="32" t="s">
+      <c r="C41" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="D41" s="32" t="s">
+      <c r="D41" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="E41" s="33" t="s">
+      <c r="E41" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="F41" s="32" t="s">
+      <c r="F41" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="G41" s="32" t="s">
+      <c r="G41" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="H41" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="I41" s="35"/>
+      <c r="H41" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" s="36"/>
     </row>
     <row r="42">
-      <c r="A42" s="36" t="s">
+      <c r="A42" s="38" t="s">
         <v>197</v>
       </c>
-      <c r="B42" s="37" t="s">
+      <c r="B42" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="C42" s="38" t="s">
+      <c r="C42" s="40" t="s">
         <v>199</v>
       </c>
-      <c r="D42" s="38" t="s">
+      <c r="D42" s="40" t="s">
         <v>200</v>
       </c>
-      <c r="E42" s="38" t="s">
+      <c r="E42" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="F42" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="G42" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="H42" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="I42" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="F42" s="38" t="s">
-        <v>201</v>
-      </c>
-      <c r="G42" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="H42" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="I42" s="40" t="s">
+    </row>
+    <row r="43">
+      <c r="A43" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="B43" s="44" t="s">
+        <v>204</v>
+      </c>
+      <c r="C43" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="E43" s="45" t="s">
+        <v>206</v>
+      </c>
+      <c r="F43" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="G43" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="H43" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43" s="47"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="B44" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="C44" s="45" t="s">
+        <v>210</v>
+      </c>
+      <c r="D44" s="45" t="s">
+        <v>211</v>
+      </c>
+      <c r="E44" s="45" t="s">
+        <v>212</v>
+      </c>
+      <c r="F44" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="G44" s="40" t="s">
+        <v>214</v>
+      </c>
+      <c r="H44" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="I44" s="47"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="B45" s="39" t="s">
+        <v>215</v>
+      </c>
+      <c r="C45" s="45" t="s">
+        <v>216</v>
+      </c>
+      <c r="D45" s="45" t="s">
+        <v>217</v>
+      </c>
+      <c r="E45" s="45" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="41" t="s">
+      <c r="F45" s="40" t="s">
+        <v>218</v>
+      </c>
+      <c r="G45" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="H45" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="I45" s="47"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="43" t="s">
         <v>197</v>
       </c>
-      <c r="B43" s="42" t="s">
-        <v>203</v>
-      </c>
-      <c r="C43" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="D43" s="43" t="s">
-        <v>204</v>
-      </c>
-      <c r="E43" s="43" t="s">
+      <c r="B46" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="C46" s="45" t="s">
+        <v>221</v>
+      </c>
+      <c r="D46" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="E46" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="F43" s="43" t="s">
-        <v>205</v>
-      </c>
-      <c r="G43" s="38" t="s">
-        <v>206</v>
-      </c>
-      <c r="H43" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="I43" s="45"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="41" t="s">
+      <c r="F46" s="40" t="s">
+        <v>223</v>
+      </c>
+      <c r="G46" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="H46" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="I46" s="47"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="43" t="s">
         <v>197</v>
       </c>
-      <c r="B44" s="37" t="s">
-        <v>207</v>
-      </c>
-      <c r="C44" s="43" t="s">
-        <v>208</v>
-      </c>
-      <c r="D44" s="43" t="s">
-        <v>209</v>
-      </c>
-      <c r="E44" s="43" t="s">
+      <c r="B47" s="44" t="s">
+        <v>225</v>
+      </c>
+      <c r="C47" s="45" t="s">
+        <v>226</v>
+      </c>
+      <c r="D47" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="E47" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="F44" s="43" t="s">
-        <v>210</v>
-      </c>
-      <c r="G44" s="38" t="s">
-        <v>211</v>
-      </c>
-      <c r="H44" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="I44" s="45"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="41" t="s">
+      <c r="F47" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="G47" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="H47" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="I47" s="47"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="43" t="s">
         <v>197</v>
       </c>
-      <c r="B45" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="C45" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="D45" s="43" t="s">
-        <v>214</v>
-      </c>
-      <c r="E45" s="43" t="s">
+      <c r="B48" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="C48" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="D48" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="E48" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="F45" s="43" t="s">
-        <v>215</v>
-      </c>
-      <c r="G45" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="H45" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="I45" s="45"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="41" t="s">
+      <c r="F48" s="40" t="s">
+        <v>232</v>
+      </c>
+      <c r="G48" s="40" t="s">
+        <v>233</v>
+      </c>
+      <c r="H48" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="I48" s="47"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="43" t="s">
         <v>197</v>
       </c>
-      <c r="B46" s="37" t="s">
-        <v>217</v>
-      </c>
-      <c r="C46" s="43" t="s">
-        <v>218</v>
-      </c>
-      <c r="D46" s="43" t="s">
-        <v>219</v>
-      </c>
-      <c r="E46" s="43" t="s">
+      <c r="B49" s="39" t="s">
+        <v>234</v>
+      </c>
+      <c r="C49" s="45" t="s">
+        <v>235</v>
+      </c>
+      <c r="D49" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="E49" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="F46" s="43" t="s">
-        <v>220</v>
-      </c>
-      <c r="G46" s="38" t="s">
+      <c r="F49" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="G49" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="H49" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="I49" s="47"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="B50" s="39" t="s">
+        <v>239</v>
+      </c>
+      <c r="C50" s="45" t="s">
+        <v>240</v>
+      </c>
+      <c r="D50" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="E50" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="F50" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="G50" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="H50" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="I50" s="47"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="B51" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="C51" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="D51" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="E51" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="F51" s="40" t="s">
+        <v>247</v>
+      </c>
+      <c r="G51" s="40" t="s">
+        <v>248</v>
+      </c>
+      <c r="H51" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="I51" s="47"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="B52" s="39" t="s">
+        <v>249</v>
+      </c>
+      <c r="C52" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="D52" s="45" t="s">
+        <v>251</v>
+      </c>
+      <c r="E52" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="F52" s="40" t="s">
+        <v>252</v>
+      </c>
+      <c r="G52" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="H52" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="I52" s="47"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="B53" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="C53" s="45" t="s">
+        <v>254</v>
+      </c>
+      <c r="D53" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="E53" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="F53" s="40" t="s">
+        <v>256</v>
+      </c>
+      <c r="G53" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="H53" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="I53" s="47"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="B54" s="39" t="s">
+        <v>258</v>
+      </c>
+      <c r="C54" s="45" t="s">
+        <v>259</v>
+      </c>
+      <c r="D54" s="45" t="s">
+        <v>260</v>
+      </c>
+      <c r="E54" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="F54" s="40" t="s">
+        <v>261</v>
+      </c>
+      <c r="G54" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="H46" s="44" t="s">
-        <v>221</v>
-      </c>
-      <c r="I46" s="45"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="41" t="s">
+      <c r="H54" s="46" t="s">
+        <v>262</v>
+      </c>
+      <c r="I54" s="47"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="43" t="s">
         <v>197</v>
       </c>
-      <c r="B47" s="42" t="s">
-        <v>222</v>
-      </c>
-      <c r="C47" s="43" t="s">
-        <v>223</v>
-      </c>
-      <c r="D47" s="43" t="s">
-        <v>224</v>
-      </c>
-      <c r="E47" s="43" t="s">
+      <c r="B55" s="39" t="s">
+        <v>263</v>
+      </c>
+      <c r="C55" s="45" t="s">
+        <v>264</v>
+      </c>
+      <c r="D55" s="45" t="s">
+        <v>265</v>
+      </c>
+      <c r="E55" s="45" t="s">
+        <v>266</v>
+      </c>
+      <c r="F55" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="G55" s="40" t="s">
+        <v>268</v>
+      </c>
+      <c r="H55" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="I55" s="47"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="48" t="s">
+        <v>269</v>
+      </c>
+      <c r="B56" s="49" t="s">
+        <v>270</v>
+      </c>
+      <c r="C56" s="50" t="s">
+        <v>271</v>
+      </c>
+      <c r="D56" s="50" t="s">
+        <v>272</v>
+      </c>
+      <c r="E56" s="50" t="s">
+        <v>273</v>
+      </c>
+      <c r="F56" s="50" t="s">
+        <v>274</v>
+      </c>
+      <c r="G56" s="50" t="s">
+        <v>275</v>
+      </c>
+      <c r="H56" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="I56" s="52" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="53" t="s">
+        <v>269</v>
+      </c>
+      <c r="B57" s="54" t="s">
+        <v>277</v>
+      </c>
+      <c r="C57" s="55" t="s">
+        <v>278</v>
+      </c>
+      <c r="D57" s="55" t="s">
+        <v>279</v>
+      </c>
+      <c r="E57" s="55" t="s">
+        <v>280</v>
+      </c>
+      <c r="F57" s="50" t="s">
+        <v>281</v>
+      </c>
+      <c r="G57" s="50" t="s">
+        <v>282</v>
+      </c>
+      <c r="H57" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="I57" s="57"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="53" t="s">
+        <v>269</v>
+      </c>
+      <c r="B58" s="49" t="s">
+        <v>283</v>
+      </c>
+      <c r="C58" s="55" t="s">
+        <v>284</v>
+      </c>
+      <c r="D58" s="55" t="s">
+        <v>285</v>
+      </c>
+      <c r="E58" s="55" t="s">
+        <v>286</v>
+      </c>
+      <c r="F58" s="50" t="s">
+        <v>287</v>
+      </c>
+      <c r="G58" s="50" t="s">
+        <v>288</v>
+      </c>
+      <c r="H58" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="I58" s="57"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="53" t="s">
+        <v>269</v>
+      </c>
+      <c r="B59" s="54" t="s">
+        <v>289</v>
+      </c>
+      <c r="C59" s="55" t="s">
+        <v>290</v>
+      </c>
+      <c r="D59" s="55" t="s">
+        <v>291</v>
+      </c>
+      <c r="E59" s="55" t="s">
+        <v>292</v>
+      </c>
+      <c r="F59" s="50" t="s">
+        <v>293</v>
+      </c>
+      <c r="G59" s="50" t="s">
+        <v>294</v>
+      </c>
+      <c r="H59" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="I59" s="57"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="53" t="s">
+        <v>269</v>
+      </c>
+      <c r="B60" s="49" t="s">
+        <v>295</v>
+      </c>
+      <c r="C60" s="55" t="s">
+        <v>296</v>
+      </c>
+      <c r="D60" s="55" t="s">
+        <v>297</v>
+      </c>
+      <c r="E60" s="55" t="s">
+        <v>298</v>
+      </c>
+      <c r="F60" s="50" t="s">
+        <v>299</v>
+      </c>
+      <c r="G60" s="50" t="s">
+        <v>300</v>
+      </c>
+      <c r="H60" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="I60" s="57"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="53" t="s">
+        <v>269</v>
+      </c>
+      <c r="B61" s="54" t="s">
+        <v>301</v>
+      </c>
+      <c r="C61" s="55" t="s">
+        <v>302</v>
+      </c>
+      <c r="D61" s="55" t="s">
+        <v>303</v>
+      </c>
+      <c r="E61" s="55" t="s">
+        <v>304</v>
+      </c>
+      <c r="F61" s="50" t="s">
+        <v>305</v>
+      </c>
+      <c r="G61" s="50" t="s">
+        <v>306</v>
+      </c>
+      <c r="H61" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="I61" s="57"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="53" t="s">
+        <v>269</v>
+      </c>
+      <c r="B62" s="49" t="s">
+        <v>307</v>
+      </c>
+      <c r="C62" s="55" t="s">
+        <v>308</v>
+      </c>
+      <c r="D62" s="55" t="s">
+        <v>309</v>
+      </c>
+      <c r="E62" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="F47" s="43" t="s">
-        <v>225</v>
-      </c>
-      <c r="G47" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="H47" s="44" t="s">
-        <v>221</v>
-      </c>
-      <c r="I47" s="45"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="41" t="s">
-        <v>197</v>
-      </c>
-      <c r="B48" s="37" t="s">
-        <v>226</v>
-      </c>
-      <c r="C48" s="43" t="s">
-        <v>227</v>
-      </c>
-      <c r="D48" s="43" t="s">
-        <v>228</v>
-      </c>
-      <c r="E48" s="43" t="s">
+      <c r="F62" s="50" t="s">
+        <v>310</v>
+      </c>
+      <c r="G62" s="50" t="s">
+        <v>311</v>
+      </c>
+      <c r="H62" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="I62" s="57"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="53" t="s">
+        <v>269</v>
+      </c>
+      <c r="B63" s="54" t="s">
+        <v>312</v>
+      </c>
+      <c r="C63" s="55" t="s">
+        <v>313</v>
+      </c>
+      <c r="D63" s="55" t="s">
+        <v>314</v>
+      </c>
+      <c r="E63" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="F48" s="43" t="s">
-        <v>229</v>
-      </c>
-      <c r="G48" s="38" t="s">
-        <v>230</v>
-      </c>
-      <c r="H48" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="I48" s="45"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="41" t="s">
-        <v>197</v>
-      </c>
-      <c r="B49" s="37" t="s">
-        <v>231</v>
-      </c>
-      <c r="C49" s="43" t="s">
-        <v>232</v>
-      </c>
-      <c r="D49" s="43" t="s">
-        <v>233</v>
-      </c>
-      <c r="E49" s="43" t="s">
+      <c r="F63" s="50" t="s">
+        <v>315</v>
+      </c>
+      <c r="G63" s="50" t="s">
+        <v>316</v>
+      </c>
+      <c r="H63" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="I63" s="57"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="53" t="s">
+        <v>269</v>
+      </c>
+      <c r="B64" s="49" t="s">
+        <v>317</v>
+      </c>
+      <c r="C64" s="55" t="s">
+        <v>318</v>
+      </c>
+      <c r="D64" s="55" t="s">
+        <v>319</v>
+      </c>
+      <c r="E64" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="F49" s="43" t="s">
-        <v>234</v>
-      </c>
-      <c r="G49" s="38" t="s">
-        <v>235</v>
-      </c>
-      <c r="H49" s="44" t="s">
+      <c r="F64" s="50" t="s">
+        <v>320</v>
+      </c>
+      <c r="G64" s="50" t="s">
+        <v>321</v>
+      </c>
+      <c r="H64" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="I64" s="57"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="53" t="s">
+        <v>269</v>
+      </c>
+      <c r="B65" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="C65" s="55" t="s">
+        <v>323</v>
+      </c>
+      <c r="D65" s="55" t="s">
+        <v>324</v>
+      </c>
+      <c r="E65" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="F65" s="50" t="s">
+        <v>325</v>
+      </c>
+      <c r="G65" s="50" t="s">
+        <v>238</v>
+      </c>
+      <c r="H65" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="I49" s="45"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="41" t="s">
-        <v>197</v>
-      </c>
-      <c r="B50" s="37" t="s">
-        <v>236</v>
-      </c>
-      <c r="C50" s="43" t="s">
-        <v>237</v>
-      </c>
-      <c r="D50" s="43" t="s">
-        <v>238</v>
-      </c>
-      <c r="E50" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="F50" s="43" t="s">
-        <v>239</v>
-      </c>
-      <c r="G50" s="38" t="s">
-        <v>240</v>
-      </c>
-      <c r="H50" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="I50" s="45"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="41" t="s">
-        <v>197</v>
-      </c>
-      <c r="B51" s="42" t="s">
-        <v>241</v>
-      </c>
-      <c r="C51" s="43" t="s">
-        <v>242</v>
-      </c>
-      <c r="D51" s="43" t="s">
-        <v>243</v>
-      </c>
-      <c r="E51" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="F51" s="43" t="s">
-        <v>244</v>
-      </c>
-      <c r="G51" s="38" t="s">
-        <v>245</v>
-      </c>
-      <c r="H51" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="I51" s="45"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="41" t="s">
-        <v>197</v>
-      </c>
-      <c r="B52" s="37" t="s">
-        <v>246</v>
-      </c>
-      <c r="C52" s="43" t="s">
-        <v>247</v>
-      </c>
-      <c r="D52" s="43" t="s">
-        <v>248</v>
-      </c>
-      <c r="E52" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="F52" s="43" t="s">
-        <v>249</v>
-      </c>
-      <c r="G52" s="38" t="s">
-        <v>235</v>
-      </c>
-      <c r="H52" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="I52" s="45"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="41" t="s">
-        <v>197</v>
-      </c>
-      <c r="B53" s="37" t="s">
-        <v>250</v>
-      </c>
-      <c r="C53" s="43" t="s">
-        <v>251</v>
-      </c>
-      <c r="D53" s="43" t="s">
-        <v>252</v>
-      </c>
-      <c r="E53" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="F53" s="43" t="s">
-        <v>253</v>
-      </c>
-      <c r="G53" s="38" t="s">
-        <v>254</v>
-      </c>
-      <c r="H53" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="I53" s="45"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="41" t="s">
-        <v>197</v>
-      </c>
-      <c r="B54" s="37" t="s">
-        <v>255</v>
-      </c>
-      <c r="C54" s="43" t="s">
-        <v>256</v>
-      </c>
-      <c r="D54" s="43" t="s">
-        <v>257</v>
-      </c>
-      <c r="E54" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="F54" s="43" t="s">
-        <v>258</v>
-      </c>
-      <c r="G54" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="H54" s="44" t="s">
-        <v>259</v>
-      </c>
-      <c r="I54" s="45"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="46" t="s">
-        <v>260</v>
-      </c>
-      <c r="B55" s="47" t="s">
-        <v>261</v>
-      </c>
-      <c r="C55" s="48" t="s">
-        <v>262</v>
-      </c>
-      <c r="D55" s="48" t="s">
-        <v>263</v>
-      </c>
-      <c r="E55" s="48" t="s">
-        <v>264</v>
-      </c>
-      <c r="F55" s="48" t="s">
-        <v>265</v>
-      </c>
-      <c r="G55" s="48" t="s">
-        <v>266</v>
-      </c>
-      <c r="H55" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="I55" s="50" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="51" t="s">
-        <v>260</v>
-      </c>
-      <c r="B56" s="52" t="s">
-        <v>268</v>
-      </c>
-      <c r="C56" s="53" t="s">
-        <v>269</v>
-      </c>
-      <c r="D56" s="53" t="s">
-        <v>270</v>
-      </c>
-      <c r="E56" s="53" t="s">
-        <v>271</v>
-      </c>
-      <c r="F56" s="53" t="s">
-        <v>272</v>
-      </c>
-      <c r="G56" s="48" t="s">
-        <v>273</v>
-      </c>
-      <c r="H56" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="I56" s="55"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="51" t="s">
-        <v>260</v>
-      </c>
-      <c r="B57" s="47" t="s">
-        <v>274</v>
-      </c>
-      <c r="C57" s="53" t="s">
-        <v>275</v>
-      </c>
-      <c r="D57" s="53" t="s">
-        <v>276</v>
-      </c>
-      <c r="E57" s="53" t="s">
-        <v>277</v>
-      </c>
-      <c r="F57" s="53" t="s">
-        <v>278</v>
-      </c>
-      <c r="G57" s="48" t="s">
-        <v>279</v>
-      </c>
-      <c r="H57" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="I57" s="55"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="51" t="s">
-        <v>260</v>
-      </c>
-      <c r="B58" s="52" t="s">
-        <v>280</v>
-      </c>
-      <c r="C58" s="53" t="s">
-        <v>281</v>
-      </c>
-      <c r="D58" s="53" t="s">
-        <v>282</v>
-      </c>
-      <c r="E58" s="53" t="s">
-        <v>283</v>
-      </c>
-      <c r="F58" s="53" t="s">
-        <v>284</v>
-      </c>
-      <c r="G58" s="48" t="s">
-        <v>285</v>
-      </c>
-      <c r="H58" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="I58" s="55"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="51" t="s">
-        <v>260</v>
-      </c>
-      <c r="B59" s="47" t="s">
-        <v>286</v>
-      </c>
-      <c r="C59" s="53" t="s">
-        <v>287</v>
-      </c>
-      <c r="D59" s="53" t="s">
-        <v>288</v>
-      </c>
-      <c r="E59" s="53" t="s">
-        <v>289</v>
-      </c>
-      <c r="F59" s="53" t="s">
-        <v>290</v>
-      </c>
-      <c r="G59" s="48" t="s">
-        <v>291</v>
-      </c>
-      <c r="H59" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="I59" s="55"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="51" t="s">
-        <v>260</v>
-      </c>
-      <c r="B60" s="52" t="s">
-        <v>292</v>
-      </c>
-      <c r="C60" s="53" t="s">
-        <v>293</v>
-      </c>
-      <c r="D60" s="53" t="s">
-        <v>294</v>
-      </c>
-      <c r="E60" s="53" t="s">
-        <v>295</v>
-      </c>
-      <c r="F60" s="53" t="s">
-        <v>296</v>
-      </c>
-      <c r="G60" s="48" t="s">
-        <v>297</v>
-      </c>
-      <c r="H60" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="I60" s="55"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="51" t="s">
-        <v>260</v>
-      </c>
-      <c r="B61" s="47" t="s">
-        <v>298</v>
-      </c>
-      <c r="C61" s="53" t="s">
-        <v>299</v>
-      </c>
-      <c r="D61" s="53" t="s">
-        <v>300</v>
-      </c>
-      <c r="E61" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="F61" s="53" t="s">
-        <v>301</v>
-      </c>
-      <c r="G61" s="48" t="s">
-        <v>302</v>
-      </c>
-      <c r="H61" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="I61" s="55"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="51" t="s">
-        <v>260</v>
-      </c>
-      <c r="B62" s="52" t="s">
-        <v>303</v>
-      </c>
-      <c r="C62" s="53" t="s">
-        <v>304</v>
-      </c>
-      <c r="D62" s="53" t="s">
-        <v>305</v>
-      </c>
-      <c r="E62" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="F62" s="53" t="s">
-        <v>306</v>
-      </c>
-      <c r="G62" s="48" t="s">
-        <v>307</v>
-      </c>
-      <c r="H62" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="I62" s="55"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="51" t="s">
-        <v>260</v>
-      </c>
-      <c r="B63" s="47" t="s">
-        <v>308</v>
-      </c>
-      <c r="C63" s="53" t="s">
-        <v>309</v>
-      </c>
-      <c r="D63" s="53" t="s">
-        <v>310</v>
-      </c>
-      <c r="E63" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="F63" s="53" t="s">
-        <v>311</v>
-      </c>
-      <c r="G63" s="48" t="s">
-        <v>312</v>
-      </c>
-      <c r="H63" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="I63" s="55"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="56" t="s">
-        <v>260</v>
-      </c>
-      <c r="B64" s="57" t="s">
-        <v>313</v>
-      </c>
-      <c r="C64" s="58" t="s">
-        <v>314</v>
-      </c>
-      <c r="D64" s="58" t="s">
-        <v>315</v>
-      </c>
-      <c r="E64" s="58" t="s">
-        <v>62</v>
-      </c>
-      <c r="F64" s="58" t="s">
-        <v>316</v>
-      </c>
-      <c r="G64" s="59" t="s">
-        <v>235</v>
-      </c>
-      <c r="H64" s="60" t="s">
-        <v>49</v>
-      </c>
-      <c r="I64" s="61"/>
+      <c r="I65" s="57"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="58"/>
+      <c r="B66" s="59"/>
+      <c r="C66" s="60"/>
+      <c r="D66" s="60"/>
+      <c r="E66" s="60"/>
+      <c r="F66" s="61"/>
+      <c r="G66" s="61"/>
+      <c r="H66" s="62"/>
+      <c r="I66" s="63"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="64"/>
+      <c r="B67" s="65"/>
+      <c r="C67" s="66"/>
+      <c r="D67" s="66"/>
+      <c r="E67" s="66"/>
+      <c r="F67" s="67"/>
+      <c r="G67" s="67"/>
+      <c r="H67" s="68"/>
+      <c r="I67" s="69"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="58"/>
+      <c r="B68" s="59"/>
+      <c r="C68" s="60"/>
+      <c r="D68" s="60"/>
+      <c r="E68" s="60"/>
+      <c r="F68" s="61"/>
+      <c r="G68" s="61"/>
+      <c r="H68" s="62"/>
+      <c r="I68" s="63"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="70"/>
+      <c r="B69" s="71"/>
+      <c r="C69" s="72"/>
+      <c r="D69" s="72"/>
+      <c r="E69" s="72"/>
+      <c r="F69" s="73"/>
+      <c r="G69" s="73"/>
+      <c r="H69" s="74"/>
+      <c r="I69" s="75"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:I64">
+  <conditionalFormatting sqref="A2:I69">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$A2="Pruebas Unitarias"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:I64">
+  <conditionalFormatting sqref="A2:I69">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>$A2="Pruebas de Integración"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:I64">
+  <conditionalFormatting sqref="A2:I69">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>$A2="Pruebas de Usabilidad"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:I64">
+  <conditionalFormatting sqref="A2:I69">
     <cfRule type="expression" dxfId="3" priority="4">
       <formula>$A2="Pruebas de Estrés"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:I64">
+  <conditionalFormatting sqref="A2:I69">
     <cfRule type="expression" dxfId="4" priority="5">
       <formula>$A2="Pruebas Funcionales"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:I64">
+  <conditionalFormatting sqref="A2:I69">
     <cfRule type="expression" dxfId="5" priority="6">
       <formula>$A2="Pruebas de Seguridad"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="H2:H64">
+    <dataValidation type="list" allowBlank="1" sqref="H2:H69">
       <formula1>"Pendiente,En Progreso,Bloqueada,Pasó / Aprobada,Fallida,Requiere Revisión,Descartada"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="A2:A64">
+    <dataValidation type="list" allowBlank="1" sqref="A2:A69">
       <formula1>"Pruebas Unitarias,Pruebas de Integración,Pruebas de Usabilidad,Pruebas de Estrés,Pruebas Funcionales,Pruebas de Seguridad"</formula1>
     </dataValidation>
   </dataValidations>
